--- a/assets/disciplinas/LOM3081.xlsx
+++ b/assets/disciplinas/LOM3081.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-4,EM-4,EA-4,EP-6,EQD-4,EQN-5</t>
+    <t>EF-4,EA-4,EP-6,EQD-4,EQN-6</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOM3081.xlsx
+++ b/assets/disciplinas/LOM3081.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,80 +70,55 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer conceitos relacionados ao comportamento dos sólidos deformáveis, capacitando ao cálculo de tensões e deformações em sistemas de barras axialmente carregadas, à análise dos estados planos de tensão e deformação, bem como prover o conhecimento e a aplicação das propriedades elásticas dos materiais.</t>
+    <t>471420 - Carlos Antonio Reis Pereira Baptista</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
-    <t>471420 - Carlos Antonio Reis Pereira Baptista</t>
+    <t>Programa resumido:</t>
   </si>
   <si>
     <t>3480026 - João Paulo Pascon</t>
   </si>
   <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
     <t>5840793 - Sérgio Schneider</t>
   </si>
   <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
     <t>7797767 - Viktor Pastoukhov</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Considerações fundamentais; Tensão e deformação em membros carregados axialmente; Análise de tensão e deformação; Relações tensão-deformação no regime elástico.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1.Considerações Fundamentais: Propósito da Mecânica dos Sólidos; Carregamentos e Esforços Solicitantes; Tensão Normal e Tensão Cisalhante; Tensões admissíveis.
-2.Tensão e Deformação em Membros Carregados Axialmente: Elasticidade linear e o Módulo de Young, Sistemas Isostáticos e Hiperestáticos; Efeitos da Temperatura.
-3.Análise de Tensão e Deformação: Variação da Tensão com o Plano de Corte; Estado Plano de Tensão; Tensões Principais e Máxima Tensão de Cisalhamento; O Círculo de Mohr para Tensão Plana; Tensão Triaxial; Deformação Angular e Módulo de Elasticidade Transversal; Coeficiente de Poisson; Transformação do Estado Plano de Deformação.
-4.Relações Tensão-Deformação no Regime Elástico: Elasticidade, Homogeneidade e Isotropia; Lei de Hooke para Tensão Triaxial em Materiais Isotrópicos; Relações entre as Constantes Elásticas; Aplicação em Vasos de Pressão de Paredes Finas.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Para compor a Nota no Semestre (NS) serão feitas duas avaliações (P1 e P2) e o critério de cálculo será: NS = (P1 + P2)/2.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Serão considerados aprovados os alunos que obtiverem NS maior ou igual a 5,0. Serão considerados reprovados os alunos que obtiverem NS menor que 3,0. Para os alunos que obtiverem NS maior ou igual a 3,0 e menor que 5,0 será dada uma prova de recuperação (R).</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A prova de Recuperação (R) irá compor a nota final (NF) da seguinte forma: NF = (R + NS)/2. Serão considerados aprovados os alunos que obtiverem NF maior ou igual a 5,0.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. J.M. GERE. Mecânica dos Materiais. São Paulo: Pioneira Thomson Learning, 2003, 698p.
-2. F.P. BEER, E.R. JOHNSTON, J.T. DeWOLF. Resistência dos Materiais. São Paulo: McGraw Hill. 4a Ed., 2006, 758p.
-3. R.R. CRAIG,Jr. Mecânica dos Materiais. Rio de Janeiro LTC. 2a Ed., 2003, 552p. 
-4. R.C. HIBBELER. Resistência dos Materiais. São Paulo: Pearson Prentice Hall. 5a Ed., 2006, 670p.
-5. A.C. UGURAL. Mecânica dos Materiais. Rio de Janeiro LTC, 2009, 638p.
-6. A.R. RAGAB, S.E. BAYOUMI. Engineering Solid Mechanics, Fundamentals and Applications. New York: CRC Press, 1999, 921p. 
-7. POPOV, E. P. Introdução à Mecânica dos Sólidos, São Paulo: Edgard Blücher, 1978, 552p.
-8. A. HIGDON, E.H. OHLSEN, W.B. STILES, J.A. WEESE, W.F. RILEY. Mecânica dos Materiais.  Rio de Janeiro: Guanabara Dois. 3a Ed., 1981, 549p.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -506,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -626,135 +601,98 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="120" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
+      <c r="A16" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="120" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="120" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="60" customHeight="1">
-      <c r="A24" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="120" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1">
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3081.xlsx
+++ b/assets/disciplinas/LOM3081.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,16 +70,31 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer conceitos relacionados ao comportamento dos sólidos deformáveis, capacitando ao cálculo de tensões e deformações em sistemas de barras axialmente carregadas, à análise dos estados planos de tensão e deformação, bem como prover o conhecimento e a aplicação das propriedades elásticas dos materiais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>471420 - Carlos Antonio Reis Pereira Baptista</t>
   </si>
   <si>
-    <t>Objectives:</t>
+    <t>3480026 - João Paulo Pascon</t>
+  </si>
+  <si>
+    <t>5840793 - Sérgio Schneider</t>
+  </si>
+  <si>
+    <t>7797767 - Viktor Pastoukhov</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>3480026 - João Paulo Pascon</t>
+    <t>Considerações fundamentais; Tensão e deformação em membros carregados axialmente; Análise de tensão e deformação; Relações tensão-deformação no regime elástico.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -88,7 +103,10 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>5840793 - Sérgio Schneider</t>
+    <t>1.Considerações Fundamentais: Propósito da Mecânica dos Sólidos; Carregamentos e Esforços Solicitantes; Tensão Normal e Tensão Cisalhante; Tensões admissíveis.
+2.Tensão e Deformação em Membros Carregados Axialmente: Elasticidade linear e o Módulo de Young, Sistemas Isostáticos e Hiperestáticos; Efeitos da Temperatura.
+3.Análise de Tensão e Deformação: Variação da Tensão com o Plano de Corte; Estado Plano de Tensão; Tensões Principais e Máxima Tensão de Cisalhamento; O Círculo de Mohr para Tensão Plana; Tensão Triaxial; Deformação Angular e Módulo de Elasticidade Transversal; Coeficiente de Poisson; Transformação do Estado Plano de Deformação.
+4.Relações Tensão-Deformação no Regime Elástico: Elasticidade, Homogeneidade e Isotropia; Lei de Hooke para Tensão Triaxial em Materiais Isotrópicos; Relações entre as Constantes Elásticas; Aplicação em Vasos de Pressão de Paredes Finas.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -100,25 +118,32 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>7797767 - Viktor Pastoukhov</t>
+    <t>Para compor a Nota no Semestre (NS) serão feitas duas avaliações (P1 e P2) e o critério de cálculo será: NS = (P1 + P2)/2.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Para compor a Nota no Semestre (NS) serão feitas duas avaliações (P1 e P2) e o critério de cálculo será: NS = (P1 + P2)/2.</t>
+    <t>Serão considerados aprovados os alunos que obtiverem NS maior ou igual a 5,0. Serão considerados reprovados os alunos que obtiverem NS menor que 3,0. Para os alunos que obtiverem NS maior ou igual a 3,0 e menor que 5,0 será dada uma prova de recuperação (R).</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Serão considerados aprovados os alunos que obtiverem NS maior ou igual a 5,0. Serão considerados reprovados os alunos que obtiverem NS menor que 3,0. Para os alunos que obtiverem NS maior ou igual a 3,0 e menor que 5,0 será dada uma prova de recuperação (R).</t>
+    <t>A prova de Recuperação (R) irá compor a nota final (NF) da seguinte forma: NF = (R + NS)/2. Serão considerados aprovados os alunos que obtiverem NF maior ou igual a 5,0.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A prova de Recuperação (R) irá compor a nota final (NF) da seguinte forma: NF = (R + NS)/2. Serão considerados aprovados os alunos que obtiverem NF maior ou igual a 5,0.</t>
+    <t>1. J.M. GERE. Mecânica dos Materiais. São Paulo: Pioneira Thomson Learning, 2003, 698p.
+2. F.P. BEER, E.R. JOHNSTON, J.T. DeWOLF. Resistência dos Materiais. São Paulo: McGraw Hill. 4a Ed., 2006, 758p.
+3. R.R. CRAIG,Jr. Mecânica dos Materiais. Rio de Janeiro LTC. 2a Ed., 2003, 552p. 
+4. R.C. HIBBELER. Resistência dos Materiais. São Paulo: Pearson Prentice Hall. 5a Ed., 2006, 670p.
+5. A.C. UGURAL. Mecânica dos Materiais. Rio de Janeiro LTC, 2009, 638p.
+6. A.R. RAGAB, S.E. BAYOUMI. Engineering Solid Mechanics, Fundamentals and Applications. New York: CRC Press, 1999, 921p. 
+7. POPOV, E. P. Introdução à Mecânica dos Sólidos, São Paulo: Edgard Blücher, 1978, 552p.
+8. A. HIGDON, E.H. OHLSEN, W.B. STILES, J.A. WEESE, W.F. RILEY. Mecânica dos Materiais.  Rio de Janeiro: Guanabara Dois. 3a Ed., 1981, 549p.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -481,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -601,98 +626,135 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="120" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="120" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="120" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
-      <c r="B22" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="60" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="120" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1">
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
